--- a/branches/answeroption/StructureDefinition-unknown-status-string.xlsx
+++ b/branches/answeroption/StructureDefinition-unknown-status-string.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:29:23+00:00</t>
+    <t>2022-04-12T17:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
